--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T18:16:13+00:00</t>
+    <t>2023-02-24T18:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T09:13:37+00:00</t>
+    <t>2023-02-28T09:38:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T09:38:47+00:00</t>
+    <t>2023-02-28T09:39:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:15+00:00</t>
+    <t>2023-03-06T10:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:09+00:00</t>
+    <t>2023-03-06T10:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:54+00:00</t>
+    <t>2023-03-06T10:59:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:59:17+00:00</t>
+    <t>2023-03-07T10:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T10:19:57+00:00</t>
+    <t>2023-03-07T10:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="383">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-practitioner</t>
+    <t>https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-practitioner</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T10:20:30+00:00</t>
+    <t>2023-03-17T09:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Profil créée dans le cadre du ROR pour décrire les données d'identification pérennes d’une personne physique, qui travaille en tant que professionnel</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -317,13 +317,193 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Practitioner.implicitRules</t>
+    <t>Practitioner.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Practitioner.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -334,9 +514,6 @@
   </si>
   <si>
     <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>Practitioner.language</t>
@@ -419,54 +596,10 @@
     <t>Practitioner.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Practitioner.extension:mailBoxMSS</t>
-  </si>
-  <si>
-    <t>mailBoxMSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/mailboxMSS}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -577,406 +710,233 @@
     <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
   </si>
   <si>
-    <t>Practitioner.name.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
+    <t>Practitioner.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Practitioner.name.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.name.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this name.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The use of a human name.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
-  </si>
-  <si>
-    <t>HumanName.use</t>
-  </si>
-  <si>
-    <t>XPN.7, but often indicated by which field contains the name</t>
+    <t>A contact detail for the practitioner (that apply to all roles)</t>
+  </si>
+  <si>
+    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
+  </si>
+  <si>
+    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
+  </si>
+  <si>
+    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>PRT-15, STF-10, ROL-12</t>
+  </si>
+  <si>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>./ContactPoints</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.extension</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.extension:usage</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-telecom-usage}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.extension:ror-telecom-confidentiality-level</t>
+  </si>
+  <si>
+    <t>ror-telecom-confidentiality-level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-confidentiality-level}
+</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.extension:ror-communication-channel</t>
+  </si>
+  <si>
+    <t>ror-communication-channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-communication-channel}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t>ele-1
+cpt-2</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
   </si>
   <si>
     <t>unique(./use)</t>
   </si>
   <si>
-    <t>./NamePurpose</t>
-  </si>
-  <si>
-    <t>Practitioner.name.text</t>
-  </si>
-  <si>
-    <t>Text representation of the full name</t>
-  </si>
-  <si>
-    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>HumanName.text</t>
-  </si>
-  <si>
-    <t>implied by XPN.11</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>Practitioner.name.family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surname
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>
-    <t>Family name (often called 'Surname')</t>
-  </si>
-  <si>
-    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
-  </si>
-  <si>
-    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
-  </si>
-  <si>
-    <t>HumanName.family</t>
-  </si>
-  <si>
-    <t>XPN.1/FN.1</t>
-  </si>
-  <si>
-    <t>./part[partType = FAM]</t>
-  </si>
-  <si>
-    <t>./FamilyName</t>
-  </si>
-  <si>
-    <t>Practitioner.name.given</t>
-  </si>
-  <si>
-    <t>first name
-middle name</t>
-  </si>
-  <si>
-    <t>Given names (not always 'first'). Includes middle names</t>
-  </si>
-  <si>
-    <t>Given name.</t>
-  </si>
-  <si>
-    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
-  </si>
-  <si>
-    <t>HumanName.given</t>
-  </si>
-  <si>
-    <t>XPN.2 + XPN.3</t>
-  </si>
-  <si>
-    <t>./part[partType = GIV]</t>
-  </si>
-  <si>
-    <t>./GivenNames</t>
-  </si>
-  <si>
-    <t>Practitioner.name.prefix</t>
-  </si>
-  <si>
-    <t>Parts that come before the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
-    <t>HumanName.prefix</t>
-  </si>
-  <si>
-    <t>XPN.5</t>
-  </si>
-  <si>
-    <t>./part[partType = PFX]</t>
-  </si>
-  <si>
-    <t>./TitleCode</t>
-  </si>
-  <si>
-    <t>Practitioner.name.suffix</t>
-  </si>
-  <si>
-    <t>Parts that come after the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
-  </si>
-  <si>
-    <t>http://esante.gouv.fr/fhir/ror/StructureDefinition</t>
-  </si>
-  <si>
-    <t>HumanName.suffix</t>
-  </si>
-  <si>
-    <t>XPN/4</t>
-  </si>
-  <si>
-    <t>./part[partType = SFX]</t>
-  </si>
-  <si>
-    <t>Practitioner.name.period</t>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.period</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Time period when name was/is in use</t>
-  </si>
-  <si>
-    <t>Indicates the period of time when this name was valid for the named person.</t>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
 Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
   </si>
   <si>
-    <t>Allows names to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>HumanName.period</t>
+    <t>ContactPoint.period</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
-    <t>XPN.13 + XPN.14</t>
-  </si>
-  <si>
     <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>A contact detail for the practitioner (that apply to all roles)</t>
-  </si>
-  <si>
-    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
-  </si>
-  <si>
-    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
-  </si>
-  <si>
-    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>PRT-15, STF-10, ROL-12</t>
-  </si>
-  <si>
-    <t>./telecom</t>
-  </si>
-  <si>
-    <t>./ContactPoints</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.id</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension:usage</t>
-  </si>
-  <si>
-    <t>usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-telecom-usage}
-</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension:ConfidentialityLevel</t>
-  </si>
-  <si>
-    <t>ConfidentialityLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-confidentiality-level}
-</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J225-CanalCommunication-ROR/FHIR/JDV-J225-CanalCommunication-ROR</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t>ele-1
-cpt-2</t>
-  </si>
-  <si>
-    <t>XTN.3</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>./ContactPointType</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>XTN.1 (or XTN.12)</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
-    <t>./ContactPointPurpose</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
   </si>
   <si>
     <t>Practitioner.address</t>
@@ -1549,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN46"/>
+  <dimension ref="A1:AN45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1558,9 +1518,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.2578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.26171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="30.4921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1568,7 +1528,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="106.02734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.27734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1582,8 +1542,8 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.06640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="102.06640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.53515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1960,7 +1920,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>84</v>
@@ -2081,10 +2041,10 @@
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>100</v>
@@ -2095,9 +2055,7 @@
       <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>74</v>
@@ -2146,7 +2104,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2155,16 +2113,16 @@
         <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>74</v>
@@ -2175,21 +2133,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2236,28 +2194,28 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>114</v>
@@ -2266,19 +2224,19 @@
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>74</v>
@@ -2289,14 +2247,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2312,19 +2270,19 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2374,7 +2332,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2392,7 +2350,7 @@
         <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>74</v>
@@ -2403,21 +2361,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>74</v>
@@ -2426,19 +2384,19 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2488,25 +2446,25 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>74</v>
@@ -2517,21 +2475,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>74</v>
@@ -2540,19 +2498,19 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2590,37 +2548,37 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>74</v>
@@ -2631,14 +2589,12 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
         <v>74</v>
       </c>
@@ -2656,18 +2612,20 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2716,7 +2674,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2728,13 +2686,13 @@
         <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>74</v>
@@ -2745,14 +2703,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2765,26 +2723,24 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J11" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="K11" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
       </c>
@@ -2808,31 +2764,31 @@
         <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2844,13 +2800,13 @@
         <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -2861,10 +2817,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2872,7 +2828,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>84</v>
@@ -2887,18 +2843,18 @@
         <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>74</v>
       </c>
@@ -2922,13 +2878,11 @@
         <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
@@ -2946,7 +2900,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2961,24 +2915,24 @@
         <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2995,76 +2949,72 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3082,21 +3032,21 @@
         <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3107,7 +3057,7 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -3116,23 +3066,21 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>74</v>
       </c>
@@ -3156,13 +3104,13 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -3180,13 +3128,13 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>96</v>
@@ -3195,13 +3143,13 @@
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>74</v>
@@ -3209,14 +3157,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3235,15 +3183,17 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3292,7 +3242,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3301,16 +3251,16 @@
         <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3321,14 +3271,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3347,16 +3297,16 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3394,16 +3344,16 @@
         <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>185</v>
@@ -3415,10 +3365,10 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -3442,39 +3392,37 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3498,52 +3446,52 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3551,45 +3499,45 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3626,37 +3574,37 @@
         <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3667,18 +3615,18 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>84</v>
@@ -3693,18 +3641,18 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3752,13 +3700,13 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>96</v>
@@ -3767,35 +3715,35 @@
         <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>74</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3807,22 +3755,26 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="R20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3866,13 +3818,13 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>96</v>
@@ -3881,24 +3833,24 @@
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>74</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3921,18 +3873,20 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3980,7 +3934,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3995,13 +3949,13 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>74</v>
@@ -4009,10 +3963,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4035,18 +3989,20 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4070,11 +4026,13 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -4092,7 +4050,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4104,16 +4062,16 @@
         <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>74</v>
@@ -4121,10 +4079,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4144,23 +4102,19 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>101</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>74</v>
       </c>
@@ -4208,7 +4162,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4217,19 +4171,19 @@
         <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>248</v>
+        <v>104</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
@@ -4237,10 +4191,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4248,10 +4202,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4260,23 +4214,19 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4312,19 +4262,19 @@
         <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4336,16 +4286,16 @@
         <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>74</v>
@@ -4353,12 +4303,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4379,13 +4331,13 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4436,25 +4388,25 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4465,12 +4417,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4479,7 +4433,7 @@
         <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4491,13 +4445,13 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4536,19 +4490,19 @@
         <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4560,7 +4514,7 @@
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4577,20 +4531,20 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>84</v>
@@ -4605,13 +4559,13 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4662,7 +4616,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4674,7 +4628,7 @@
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4691,24 +4645,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G28" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4716,18 +4668,20 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>163</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4752,13 +4706,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -4776,28 +4730,28 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>96</v>
+        <v>255</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -4805,10 +4759,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4831,18 +4785,20 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4866,11 +4822,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4888,7 +4846,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4897,19 +4855,19 @@
         <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>275</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -4917,10 +4875,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4928,7 +4886,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>84</v>
@@ -4937,25 +4895,25 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -4980,13 +4938,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>273</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -5004,7 +4962,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5019,13 +4977,13 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5033,10 +4991,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5053,26 +5011,24 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5096,13 +5052,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5120,7 +5076,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5135,13 +5091,13 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>296</v>
+        <v>104</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>297</v>
+        <v>74</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5149,10 +5105,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5175,16 +5131,16 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5234,7 +5190,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5246,16 +5202,16 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>291</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>105</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>74</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5263,10 +5219,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5277,7 +5233,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5289,18 +5245,20 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5348,28 +5306,28 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>246</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>98</v>
+        <v>300</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5377,10 +5335,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5391,7 +5349,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5403,19 +5361,19 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>309</v>
+        <v>163</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5440,13 +5398,13 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>74</v>
+        <v>308</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
@@ -5464,13 +5422,13 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>96</v>
@@ -5479,13 +5437,13 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5493,10 +5451,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5519,19 +5477,17 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5556,13 +5512,13 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5580,7 +5536,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5595,13 +5551,13 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5609,10 +5565,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5623,7 +5579,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5632,20 +5588,22 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5694,28 +5652,28 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>326</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5723,10 +5681,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5749,20 +5707,16 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5810,7 +5764,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5822,16 +5776,16 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -5839,10 +5793,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5853,7 +5807,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5865,13 +5819,13 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>101</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>347</v>
+        <v>102</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5922,28 +5876,28 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>344</v>
+        <v>103</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>348</v>
+        <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>349</v>
+        <v>104</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -5951,21 +5905,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5977,15 +5931,17 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -6022,37 +5978,37 @@
         <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
@@ -6063,14 +6019,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>131</v>
+        <v>340</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6083,24 +6039,26 @@
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>133</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>184</v>
+        <v>342</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6136,19 +6094,19 @@
         <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>185</v>
+        <v>343</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6160,7 +6118,7 @@
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -6177,14 +6135,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>354</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6197,25 +6155,23 @@
         <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6264,7 +6220,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6276,16 +6232,16 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>74</v>
+        <v>348</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>98</v>
+        <v>349</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6293,10 +6249,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6304,10 +6260,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6319,18 +6275,18 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>152</v>
+        <v>352</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6354,13 +6310,13 @@
         <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>74</v>
+        <v>356</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6378,13 +6334,13 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>96</v>
@@ -6393,13 +6349,13 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6407,10 +6363,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6418,7 +6374,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>84</v>
@@ -6433,18 +6389,20 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>366</v>
+        <v>286</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6468,13 +6426,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>370</v>
+        <v>74</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>371</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>372</v>
+        <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6492,10 +6450,10 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>84</v>
@@ -6504,16 +6462,16 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>291</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6521,10 +6479,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6547,20 +6505,18 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>240</v>
+        <v>369</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6608,7 +6564,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6620,16 +6576,16 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>246</v>
+        <v>373</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>379</v>
+        <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>381</v>
+        <v>74</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6637,10 +6593,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6651,7 +6607,7 @@
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -6663,18 +6619,20 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6698,13 +6656,13 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -6722,146 +6680,30 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>387</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>74</v>
+        <v>380</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
+        <v>382</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="P46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AN46" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T09:52:06+00:00</t>
+    <t>2023-03-17T11:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T11:28:56+00:00</t>
+    <t>2023-03-19T15:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:24:51+00:00</t>
+    <t>2023-03-19T15:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:26+00:00</t>
+    <t>2023-03-19T15:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:59+00:00</t>
+    <t>2023-03-24T16:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-24T16:48:26+00:00</t>
+    <t>2023-04-06T16:24:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T16:24:50+00:00</t>
+    <t>2023-04-07T06:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T06:20:05+00:00</t>
+    <t>2023-04-07T09:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:27:55+00:00</t>
+    <t>2023-04-07T09:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="453">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-practitioner</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:29:51+00:00</t>
+    <t>2023-04-11T09:33:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -492,13 +492,31 @@
     <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Slicing pour gérer le code région définissant la région source des données</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.tag:codeRegion</t>
+  </si>
+  <si>
+    <t>codeRegion</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
   </si>
   <si>
     <t>Practitioner.implicitRules</t>
@@ -596,10 +614,29 @@
     <t>Practitioner.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.extension:ror-meta-creation-date</t>
+  </si>
+  <si>
+    <t>ror-meta-creation-date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-meta-creation-date}
+</t>
+  </si>
+  <si>
+    <t>dateCreation (Metadonnee)</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régional) présente dans les métadonnées.</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -625,7 +662,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier for the person as this agent</t>
+    <t>idNat_PS (Professionnel) : Identification nationale du professionnel définie par le CI-SIS</t>
   </si>
   <si>
     <t>An identifier that applies to this person in this role.</t>
@@ -710,6 +747,206 @@
     <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
   </si>
   <si>
+    <t>Practitioner.name.id</t>
+  </si>
+  <si>
+    <t>Practitioner.name.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./NamePurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>Practitioner.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>XPN.1/FN.1</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>./FamilyName</t>
+  </si>
+  <si>
+    <t>Practitioner.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>./GivenNames</t>
+  </si>
+  <si>
+    <t>Practitioner.name.prefix</t>
+  </si>
+  <si>
+    <t>Civilite (PersonnePhysique) : Civilite de la personne physique</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J207-Civilite-ROR/FHIR/JDV-J207-Civilite-ROR</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>XPN.5</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>./TitleCode</t>
+  </si>
+  <si>
+    <t>Practitioner.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>XPN/4</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>Practitioner.name.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>XPN.13 + XPN.14</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
     <t>Practitioner.telecom</t>
   </si>
   <si>
@@ -717,7 +954,7 @@
 </t>
   </si>
   <si>
-    <t>A contact detail for the practitioner (that apply to all roles)</t>
+    <t>boiteLettreMSS (Professionnel) : Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) au professionnel</t>
   </si>
   <si>
     <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
@@ -751,22 +988,35 @@
     <t>2</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension:usage</t>
-  </si>
-  <si>
-    <t>usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-telecom-usage}
+    <t>Practitioner.telecom.extension:ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t>ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-communication-channel}
 </t>
   </si>
   <si>
+    <t>canal (Telecommunication) : Code spécifiant le canal ou la manière dont s'établit la communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.extension:ror-telecom-usage</t>
+  </si>
+  <si>
+    <t>ror-telecom-usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-usage}
+</t>
+  </si>
+  <si>
+    <t>utilisation (Telecommunication) : Utilisation du canal de communication</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
   </si>
   <si>
@@ -776,24 +1026,14 @@
     <t>ror-telecom-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-confidentiality-level}
 </t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension:ror-communication-channel</t>
-  </si>
-  <si>
-    <t>ror-communication-channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-communication-channel}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
+    <t>niveauConfidentialite (Telecommunication) : niveau de restriction de l'accès aux attributs de la classe Télécommunication</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
   </si>
   <si>
     <t>Practitioner.telecom.system</t>
@@ -803,9 +1043,6 @@
   </si>
   <si>
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Telecommunications form for contact point.</t>
@@ -833,7 +1070,7 @@
     <t>Practitioner.telecom.value</t>
   </si>
   <si>
-    <t>The actual contact point details</t>
+    <t>adresseTelecom (Telecommunication) : Valeur de l'adresse de télécommunication dans le format induit par le canal de communication</t>
   </si>
   <si>
     <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
@@ -882,9 +1119,6 @@
   </si>
   <si>
     <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
   </si>
   <si>
     <t>./ContactPointPurpose</t>
@@ -912,31 +1146,13 @@
     <t>Practitioner.telecom.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Time period when the contact point was/is in use</t>
   </si>
   <si>
     <t>Time period when the contact point was/is in use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
   </si>
   <si>
     <t>Practitioner.address</t>
@@ -1132,9 +1348,6 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Specific qualification the practitioner has to provide a service.</t>
@@ -1509,7 +1722,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN45"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1518,9 +1731,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.2578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.25390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="30.4921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="34.48828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1528,7 +1741,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.27734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="101.3359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1542,11 +1755,11 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="81.53515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="69.203125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1806,7 +2019,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>84</v>
@@ -2372,7 +2585,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>84</v>
@@ -2831,7 +3044,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2880,27 +3093,29 @@
       <c r="X12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Y12" s="2"/>
+      <c r="Y12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="Z12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2929,12 +3144,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>74</v>
       </c>
@@ -2949,22 +3166,22 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2990,13 +3207,11 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>74</v>
@@ -3014,13 +3229,13 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>96</v>
@@ -3029,10 +3244,10 @@
         <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
@@ -3043,10 +3258,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3063,13 +3278,13 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>164</v>
@@ -3104,31 +3319,31 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3157,14 +3372,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3183,16 +3398,16 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3218,13 +3433,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3242,7 +3457,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3260,7 +3475,7 @@
         <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3271,21 +3486,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -3297,16 +3512,16 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3356,25 +3571,25 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -3385,14 +3600,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3411,16 +3626,16 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3458,19 +3673,19 @@
         <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3479,10 +3694,10 @@
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
@@ -3499,18 +3714,18 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>76</v>
@@ -3519,7 +3734,7 @@
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>74</v>
@@ -3528,17 +3743,13 @@
         <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3586,7 +3797,7 @@
         <v>113</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3604,7 +3815,7 @@
         <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3615,12 +3826,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3638,21 +3851,19 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>198</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3700,7 +3911,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3712,145 +3923,143 @@
         <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>202</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="P20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>211</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3858,10 +4067,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3873,19 +4082,17 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -3934,7 +4141,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3949,24 +4156,24 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3989,24 +4196,26 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="R22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4050,39 +4259,39 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>74</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4093,7 +4302,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4102,19 +4311,23 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
       </c>
@@ -4162,28 +4375,28 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
@@ -4191,10 +4404,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4202,10 +4415,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4217,13 +4430,13 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4262,37 +4475,37 @@
         <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -4303,23 +4516,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4331,15 +4542,17 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4376,16 +4589,16 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>114</v>
@@ -4406,7 +4619,7 @@
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4417,20 +4630,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>84</v>
@@ -4439,22 +4650,26 @@
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4478,13 +4693,13 @@
         <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>74</v>
@@ -4502,28 +4717,28 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>114</v>
+        <v>242</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -4531,20 +4746,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>84</v>
@@ -4556,19 +4769,23 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>246</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4616,25 +4833,25 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4645,14 +4862,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4671,16 +4888,16 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4706,13 +4923,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -4730,7 +4947,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4739,19 +4956,19 @@
         <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>255</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -4759,21 +4976,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4788,17 +5005,15 @@
         <v>100</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4846,13 +5061,13 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>96</v>
@@ -4861,13 +5076,13 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -4875,10 +5090,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4889,32 +5104,30 @@
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4938,13 +5151,11 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -4962,13 +5173,13 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>96</v>
@@ -4977,13 +5188,13 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -4991,10 +5202,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5005,7 +5216,7 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -5017,16 +5228,16 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5082,7 +5293,7 @@
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>96</v>
@@ -5091,10 +5302,10 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>104</v>
+        <v>285</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>104</v>
+        <v>286</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -5105,10 +5316,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5131,18 +5342,20 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5190,7 +5403,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5202,16 +5415,16 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5219,10 +5432,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5245,19 +5458,19 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5306,7 +5519,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5318,16 +5531,16 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>304</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5335,10 +5548,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5358,23 +5571,19 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>304</v>
+        <v>101</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5398,13 +5607,13 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>307</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>308</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
@@ -5422,7 +5631,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>103</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5431,19 +5640,19 @@
         <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>309</v>
+        <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>310</v>
+        <v>104</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>311</v>
+        <v>74</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5451,10 +5660,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5462,10 +5671,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5474,21 +5683,19 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>313</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>193</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
+        <v>194</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>316</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5524,40 +5731,40 @@
         <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>312</v>
+        <v>114</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>317</v>
+        <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>319</v>
+        <v>74</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5565,21 +5772,23 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5591,20 +5800,16 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5652,7 +5857,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>114</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5664,16 +5869,16 @@
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>326</v>
+        <v>115</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>327</v>
+        <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>328</v>
+        <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5681,12 +5886,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5695,7 +5902,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5707,13 +5914,13 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5764,7 +5971,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>330</v>
+        <v>114</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5776,16 +5983,16 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>334</v>
+        <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>335</v>
+        <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>336</v>
+        <v>74</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -5793,18 +6000,20 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>84</v>
@@ -5819,13 +6028,13 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>100</v>
+        <v>323</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>101</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>102</v>
+        <v>325</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5876,25 +6085,25 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>74</v>
@@ -5905,21 +6114,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5928,19 +6137,19 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>108</v>
+        <v>327</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>109</v>
+        <v>328</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5966,52 +6175,52 @@
         <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>74</v>
+        <v>330</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>114</v>
+        <v>331</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>332</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>74</v>
+        <v>333</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>98</v>
+        <v>334</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>74</v>
+        <v>335</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>74</v>
@@ -6019,45 +6228,45 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>110</v>
+        <v>339</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>192</v>
+        <v>340</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6106,28 +6315,28 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>74</v>
+        <v>342</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>98</v>
+        <v>343</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>74</v>
@@ -6135,10 +6344,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6149,29 +6358,31 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6196,13 +6407,13 @@
         <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>74</v>
+        <v>351</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>74</v>
@@ -6220,13 +6431,13 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>96</v>
@@ -6235,13 +6446,13 @@
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>349</v>
+        <v>244</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6249,10 +6460,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6260,7 +6471,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>84</v>
@@ -6272,19 +6483,19 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6310,13 +6521,13 @@
         <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>356</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>357</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>358</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6334,10 +6545,10 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>84</v>
@@ -6349,13 +6560,13 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>359</v>
+        <v>104</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>335</v>
+        <v>104</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>360</v>
+        <v>74</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6386,10 +6597,10 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>362</v>
@@ -6398,11 +6609,9 @@
         <v>363</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6450,7 +6659,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6462,16 +6671,16 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>365</v>
+        <v>98</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6479,10 +6688,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6493,7 +6702,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -6502,21 +6711,23 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6564,28 +6775,28 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6593,10 +6804,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6607,7 +6818,7 @@
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -6616,22 +6827,22 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>352</v>
+        <v>169</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6656,13 +6867,13 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>168</v>
+        <v>378</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>169</v>
+        <v>379</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -6680,13 +6891,13 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>96</v>
@@ -6704,6 +6915,1264 @@
         <v>382</v>
       </c>
       <c r="AN45" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:07+00:00</t>
+    <t>2023-04-11T13:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T13:02:58+00:00</t>
+    <t>2023-04-12T12:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T12:26:01+00:00</t>
+    <t>2023-04-12T14:42:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:42:58+00:00</t>
+    <t>2023-04-12T15:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:04:36+00:00</t>
+    <t>2023-04-12T15:32:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:32:06+00:00</t>
+    <t>2023-04-12T16:09:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:09:30+00:00</t>
+    <t>2023-04-19T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T09:29:32+00:00</t>
+    <t>2023-04-27T07:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T07:56:45+00:00</t>
+    <t>2023-04-28T06:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:37:34+00:00</t>
+    <t>2023-04-28T06:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/main/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:38:38+00:00</t>
+    <t>2023-05-10T10:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
